--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="570">
   <si>
     <t>date</t>
   </si>
@@ -1658,6 +1658,18 @@
   </si>
   <si>
     <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2069,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H542"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2147,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2173,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2199,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2225,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2251,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2277,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2303,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2329,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2355,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2381,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2407,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2433,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2459,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2485,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2511,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2537,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2563,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2589,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2615,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2641,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2667,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2693,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2719,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2745,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2771,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2797,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2823,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2849,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2875,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2901,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2927,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2953,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2979,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3005,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3031,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3057,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3083,7 +3095,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3109,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3135,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3161,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3187,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3213,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3239,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3265,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3291,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3317,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3343,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3369,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3395,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3421,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3447,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3473,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3499,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3525,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3551,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3577,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3603,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3629,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3655,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3681,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3707,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3733,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3759,7 +3771,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3785,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3811,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3837,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3863,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3889,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3915,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3941,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3993,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4019,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4045,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4071,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4097,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4123,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4149,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4175,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4201,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4227,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4253,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4279,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4331,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4357,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4383,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4409,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4435,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4461,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4487,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4513,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4539,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4565,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4591,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4617,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4643,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4669,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4695,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4721,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4747,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4773,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4799,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4825,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4851,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4877,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4903,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4929,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4955,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4981,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5007,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5033,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5059,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5085,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5111,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5137,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5163,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5189,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5215,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5241,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5267,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5293,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5319,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5345,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5371,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5397,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5423,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5449,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5475,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5501,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5527,7 +5539,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5553,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5579,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5605,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5631,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5657,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5683,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5709,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5735,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5761,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5787,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5813,7 +5825,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5839,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5865,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5891,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5917,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5943,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5969,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5995,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6021,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6047,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6073,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6099,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6125,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6151,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6177,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6203,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6229,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6255,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6281,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6307,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6333,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6359,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6385,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6411,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6437,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6463,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6489,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6515,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6541,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6567,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6593,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6619,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6645,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6671,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6697,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6723,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6749,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6775,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6801,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6827,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6853,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6879,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6905,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6931,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6957,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6983,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7009,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7035,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7061,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7087,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7113,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7139,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7165,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7191,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7217,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7243,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7269,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7295,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7321,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7347,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7373,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7399,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7425,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7451,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7477,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7503,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7529,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7555,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7581,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7607,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7633,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7659,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7685,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7711,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7737,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7763,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7789,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7815,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7841,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7867,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7893,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7919,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7945,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7971,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7997,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8023,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8049,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8075,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8101,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8127,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8153,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8179,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8205,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8231,7 +8243,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8257,7 +8269,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8283,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8309,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8335,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8361,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8387,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8413,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8439,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8465,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8491,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8517,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8543,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8569,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8595,7 +8607,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8621,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8647,7 +8659,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8673,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8699,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8725,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8751,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8777,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8803,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8829,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8855,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8881,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8907,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8933,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8959,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8985,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9011,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9037,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9063,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9089,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9115,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9141,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9167,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9193,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9219,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9245,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9271,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9297,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9323,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9349,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9375,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9401,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9427,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9453,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9479,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9505,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9531,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9557,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9583,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9609,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9635,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9661,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9687,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9713,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9739,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9765,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9791,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9817,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9843,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9869,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9895,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9921,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9947,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9973,7 +9985,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9999,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10025,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10051,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10077,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10103,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10129,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10155,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10181,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10207,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10233,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10259,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10285,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10311,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10337,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10363,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10389,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10415,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10441,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10467,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10493,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10519,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10545,7 +10557,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10571,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10597,7 +10609,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10623,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10649,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10675,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10701,7 +10713,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10727,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10753,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10779,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10805,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10831,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10857,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10883,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10909,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10935,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10961,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10987,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11013,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11039,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11065,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11091,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11117,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11143,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11169,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11195,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11221,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11247,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11273,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11299,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11325,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11351,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11377,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11403,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11429,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11455,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11481,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11507,7 +11519,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11533,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11559,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11585,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11611,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11637,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11663,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11689,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11715,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11741,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11767,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11793,7 +11805,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11819,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11845,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11871,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11897,7 +11909,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11923,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11949,7 +11961,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11975,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12001,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12027,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12053,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12079,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12105,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12131,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12157,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12183,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12209,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12235,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12261,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12287,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12313,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12339,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12365,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12391,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12417,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12443,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12469,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12495,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12521,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12547,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12573,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12599,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12625,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12651,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12677,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12703,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12729,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12755,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12781,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12807,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12833,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12859,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12885,7 +12897,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12911,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12937,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12963,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12989,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13015,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13041,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13067,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13093,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13119,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13145,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13171,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13197,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13223,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13249,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13275,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13301,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13327,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13353,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13379,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13405,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13431,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13457,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13483,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13509,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13535,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13561,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13587,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13613,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13639,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13665,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13691,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13717,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13743,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13769,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13795,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13821,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13847,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13873,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13899,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13925,7 +13937,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13951,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13977,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14003,7 +14015,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14029,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14055,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14081,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14107,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14133,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14159,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14185,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14211,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14237,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14263,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14289,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14315,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14341,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14367,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14393,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14419,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14445,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14471,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14497,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14523,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14549,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14575,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14601,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14627,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14653,7 +14665,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14679,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14705,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14731,7 +14743,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14757,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14783,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14809,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14835,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14861,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14887,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14913,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14939,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14965,7 +14977,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14991,7 +15003,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15017,7 +15029,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15043,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15069,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15095,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15121,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15147,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15173,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15199,7 +15211,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15225,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15251,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15277,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15303,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15329,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15355,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15381,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15407,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15433,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15459,7 +15471,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15485,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15511,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15537,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15563,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15589,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15615,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15641,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15667,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15693,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15719,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15745,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15771,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15797,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15823,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15849,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15875,7 +15887,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15901,7 +15913,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15927,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15953,7 +15965,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15979,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16005,7 +16017,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16031,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16057,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16083,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16109,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16135,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16145,9 +16157,15 @@
       <c r="B542" t="s">
         <v>547</v>
       </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
       <c r="D542">
         <v>1</v>
       </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
       <c r="F542">
         <v>0</v>
       </c>
@@ -16155,7 +16173,105 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>548</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
         <v>549</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>550</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>551</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="576">
   <si>
     <t>date</t>
   </si>
@@ -1670,6 +1670,24 @@
   </si>
   <si>
     <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2081,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2159,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2185,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2211,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2237,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2263,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2289,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2315,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2341,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2367,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2393,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2419,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2445,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2471,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2497,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2523,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2549,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2575,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2601,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2627,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2653,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2679,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2705,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2731,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2757,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2783,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2809,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2835,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2861,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2887,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2913,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2939,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2965,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2991,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3017,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3043,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3069,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3095,7 +3113,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3121,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3147,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3173,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3199,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3225,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3251,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3277,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3303,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3329,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3355,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3381,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3407,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3433,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3459,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3485,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3511,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3537,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3563,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3589,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3615,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3667,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3693,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3719,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3745,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3771,7 +3789,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3797,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3823,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3849,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3875,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3901,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3927,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3953,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3979,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4005,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4031,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4057,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4083,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4109,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4135,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4161,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4187,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4213,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4239,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4265,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4291,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4317,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4343,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4369,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4395,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4447,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4473,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4499,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4525,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4551,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4577,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4603,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4629,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4655,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4681,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4707,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4733,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4759,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4785,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4811,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4837,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4863,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4889,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4915,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4941,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4967,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4993,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5019,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5045,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5071,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5097,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5123,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5149,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5175,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5201,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5227,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5253,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5279,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5305,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5331,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5357,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5383,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5409,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5435,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5461,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5487,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5513,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5539,7 +5557,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5565,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5591,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5643,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5669,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5695,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5721,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5747,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5773,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5799,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5825,7 +5843,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5851,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5877,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5903,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5929,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5955,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5981,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6007,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6033,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6059,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6085,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6111,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6137,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6163,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6189,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6215,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6241,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6267,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6293,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6319,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6345,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6371,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6397,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6423,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6449,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6475,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6501,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6527,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6553,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6579,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6605,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6631,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6657,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6683,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6709,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6735,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6761,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6787,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6813,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6839,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6865,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6891,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6917,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6943,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6969,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6995,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7021,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7047,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7073,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7099,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7125,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7151,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7177,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7203,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7229,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7255,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7281,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7307,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7333,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7359,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7385,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7411,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7437,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7463,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7489,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7515,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7541,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7567,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7593,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7619,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7645,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7671,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7697,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7723,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7749,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7775,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7801,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7827,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7853,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7879,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7905,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7931,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7957,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7983,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8009,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8035,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8061,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8087,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8113,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8139,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8165,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8191,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8217,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8243,7 +8261,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8269,7 +8287,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8295,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8321,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8347,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8373,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8399,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8425,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8451,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8477,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8503,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8529,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8555,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8581,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8607,7 +8625,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8633,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8659,7 +8677,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8685,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8711,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8737,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8763,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8789,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8815,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8841,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8867,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8893,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8919,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8945,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8971,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8997,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9023,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9049,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9075,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9101,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9127,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9153,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9179,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9205,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9231,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9257,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9283,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9309,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9335,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9361,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9387,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9413,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9439,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9465,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9491,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9517,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9543,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9569,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9595,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9621,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9647,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9673,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9699,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9725,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9751,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9777,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9803,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9829,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9855,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9881,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9907,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9933,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9959,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9985,7 +10003,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10011,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10037,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10063,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10089,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10115,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10141,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10167,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10193,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10219,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10245,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10271,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10297,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10323,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10349,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10375,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10401,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10427,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10453,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10479,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10505,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10531,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10557,7 +10575,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10583,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10609,7 +10627,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10635,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10661,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10687,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10713,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10739,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10765,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10791,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10817,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10843,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10869,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10895,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10921,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10947,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10973,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10999,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11025,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11051,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11077,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11103,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11129,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11155,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11181,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11207,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11233,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11259,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11285,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11311,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11337,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11363,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11389,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11415,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11441,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11467,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11493,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11519,7 +11537,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11545,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11571,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11597,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11623,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11649,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11675,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11701,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11727,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11753,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11779,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11805,7 +11823,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11831,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11857,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11883,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11909,7 +11927,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11935,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11961,7 +11979,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11987,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12013,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12039,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12065,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12091,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12117,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12143,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12169,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12195,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12221,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12247,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12273,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12299,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12325,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12351,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12377,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12403,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12429,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12455,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12481,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12507,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12533,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12559,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12585,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12611,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12637,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12663,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12689,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12715,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12741,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12767,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12793,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12819,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12845,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12871,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12897,7 +12915,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12923,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12949,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12975,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13001,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13027,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13053,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13079,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13105,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13131,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13157,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13183,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13209,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13235,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13261,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13287,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13313,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13339,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13365,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13391,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13417,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13443,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13469,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13495,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13521,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13547,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13573,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13599,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13625,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13651,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13677,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13703,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13729,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13755,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13781,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13807,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13833,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13859,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13885,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13911,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13937,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13963,7 +13981,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13989,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14015,7 +14033,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14041,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14067,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14093,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14119,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14145,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14171,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14197,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14223,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14249,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14275,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14301,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14327,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14353,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14379,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14405,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14431,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14457,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14483,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14509,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14535,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14561,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14587,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14613,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14639,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14665,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14691,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14717,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14743,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14769,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14795,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14821,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14847,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14873,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14899,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14925,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14951,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14977,7 +14995,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15003,7 +15021,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15029,7 +15047,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15055,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15081,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15107,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15133,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15159,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15185,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15211,7 +15229,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15237,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15263,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15289,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15315,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15341,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15367,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15393,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15419,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15445,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15471,7 +15489,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15497,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15523,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15549,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15575,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15601,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15627,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15653,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15679,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15705,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15731,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15757,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15783,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15809,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15835,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15861,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15887,7 +15905,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15913,7 +15931,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15939,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15965,7 +15983,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15991,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16017,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16043,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16069,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16095,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16121,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16147,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16173,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16199,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16225,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16251,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16261,9 +16279,15 @@
       <c r="B546" t="s">
         <v>551</v>
       </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
       <c r="D546">
         <v>0</v>
       </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
       <c r="F546">
         <v>1</v>
       </c>
@@ -16271,7 +16295,157 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>552</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
         <v>553</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>554</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>1</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>555</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>556</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>557</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+      <c r="H552" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="579">
   <si>
     <t>date</t>
   </si>
@@ -1688,6 +1688,15 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2099,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2151,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2177,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2203,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2229,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2255,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2281,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2307,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2333,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2359,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2385,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2411,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2437,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2463,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2489,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2515,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2541,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2567,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2593,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2619,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2645,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2671,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2697,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2723,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2749,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2775,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2827,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2853,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2879,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2905,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2931,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2957,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2983,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3009,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3035,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3061,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3087,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3113,7 +3122,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3139,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3191,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3217,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3243,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3269,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3295,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3321,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3373,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3399,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3425,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3451,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3477,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3503,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3529,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3555,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3581,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3607,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3633,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3659,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3685,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3711,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3737,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3763,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3789,7 +3798,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3815,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3841,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3867,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3893,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3919,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3945,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3971,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3997,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4023,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4049,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4075,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4101,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4127,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4153,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4179,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4205,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4231,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4257,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4283,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4309,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4335,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4361,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4387,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4413,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4439,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4465,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4491,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4517,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4543,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4569,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4595,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4621,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4647,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4673,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4699,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4725,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4751,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4777,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4803,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4829,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4855,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4881,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4907,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4933,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4959,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4985,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5011,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5037,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5063,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5089,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5115,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5141,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5167,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5193,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5219,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5245,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5271,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5297,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5323,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5349,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5375,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5401,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5427,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5453,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5479,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5505,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5531,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5557,7 +5566,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5583,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5609,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5635,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5661,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5687,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5713,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5739,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5765,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5791,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5817,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5843,7 +5852,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5869,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5895,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5921,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5947,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5973,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5999,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6025,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6051,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6077,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6103,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6129,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6155,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6181,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6207,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6233,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6259,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6285,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6311,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6337,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6363,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6389,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6415,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6441,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6467,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6493,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6519,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6545,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6571,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6597,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6623,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6649,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6675,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6701,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6727,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6753,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6779,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6805,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6831,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6857,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6883,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6909,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6935,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6961,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6987,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7013,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7039,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7065,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7091,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7117,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7143,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7169,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7195,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7221,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7247,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7273,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7299,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7325,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7351,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7377,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7403,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7429,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7455,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7481,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7507,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7533,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7559,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7585,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7611,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7637,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7663,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7689,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7715,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7741,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7767,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7793,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7819,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7845,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7871,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7897,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7923,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7949,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7975,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8001,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8027,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8053,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8079,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8105,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8131,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8157,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8183,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8209,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8235,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8261,7 +8270,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8287,7 +8296,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8313,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8339,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8365,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8391,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8417,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8443,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8469,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8495,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8521,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8547,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8573,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8599,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8625,7 +8634,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8651,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8677,7 +8686,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8703,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8729,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8755,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8781,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8807,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8833,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8859,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8885,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8911,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8937,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8963,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8989,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9015,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9041,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9067,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9093,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9119,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9145,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9171,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9197,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9223,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9249,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9275,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9301,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9327,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9353,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9379,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9405,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9431,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9457,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9483,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9509,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9535,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9561,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9587,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9613,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9639,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9665,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9691,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9717,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9743,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9769,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9795,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9821,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9847,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9873,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9899,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9925,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9951,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9977,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10003,7 +10012,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10029,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10055,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10081,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10107,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10133,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10159,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10185,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10211,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10237,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10263,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10289,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10315,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10341,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10367,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10393,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10419,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10445,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10471,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10497,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10523,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10549,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10575,7 +10584,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10601,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10627,7 +10636,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10653,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10679,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10705,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10731,7 +10740,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10757,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10783,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10809,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10835,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10861,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10887,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10913,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10939,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10965,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10991,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11017,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11043,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11069,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11095,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11121,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11147,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11173,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11199,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11225,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11251,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11277,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11303,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11329,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11355,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11381,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11407,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11433,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11459,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11485,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11511,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11537,7 +11546,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11563,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11589,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11615,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11641,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11667,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11693,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11719,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11745,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11771,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11797,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11823,7 +11832,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11849,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11875,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11901,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11927,7 +11936,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11953,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11979,7 +11988,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12005,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12031,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12057,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12083,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12109,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12135,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12161,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12187,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12213,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12239,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12265,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12291,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12317,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12343,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12369,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12395,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12421,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12447,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12473,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12499,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12525,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12551,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12577,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12603,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12629,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12655,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12681,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12707,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12733,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12759,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12785,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12811,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12837,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12863,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12889,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12915,7 +12924,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12941,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12967,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12993,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13019,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13045,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13071,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13097,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13123,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13149,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13175,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13201,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13227,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13253,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13279,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13305,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13331,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13357,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13383,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13409,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13435,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13461,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13487,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13513,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13539,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13565,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13591,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13617,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13643,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13669,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13695,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13721,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13747,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13773,7 +13782,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13799,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13825,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13851,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13877,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13903,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13929,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13955,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13981,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14007,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14033,7 +14042,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14059,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14085,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14111,7 +14120,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14137,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14163,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14189,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14215,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14241,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14267,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14293,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14319,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14345,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14371,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14397,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14423,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14449,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14475,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14501,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14527,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14553,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14579,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14605,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14631,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14657,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14683,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14709,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14735,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14761,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14787,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14813,7 +14822,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14839,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14865,7 +14874,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14891,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14917,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14943,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14969,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14995,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15021,7 +15030,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15047,7 +15056,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15073,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15099,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15125,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15151,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15177,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15203,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15229,7 +15238,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15255,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15281,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15307,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15333,7 +15342,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15359,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15385,7 +15394,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15411,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15437,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15463,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15489,7 +15498,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15515,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15541,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15567,7 +15576,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15593,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15619,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15645,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15671,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15697,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15723,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15749,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15775,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15801,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15827,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15853,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15879,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15905,7 +15914,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15931,7 +15940,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15957,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15983,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16009,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16035,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16061,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16087,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16113,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16139,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16165,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16191,7 +16200,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16217,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16243,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16269,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16295,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16321,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16347,7 +16356,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16373,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16399,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16425,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16435,9 +16444,15 @@
       <c r="B552" t="s">
         <v>557</v>
       </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
       <c r="D552">
         <v>0</v>
       </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
       <c r="F552">
         <v>0</v>
       </c>
@@ -16445,7 +16460,79 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
         <v>558</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+      <c r="H553" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>559</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>560</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>1</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="581">
   <si>
     <t>date</t>
   </si>
@@ -1697,6 +1697,12 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2108,7 +2114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2212,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2316,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2342,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2368,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2394,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2420,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2446,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2472,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2498,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2524,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2550,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2576,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2602,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2628,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2654,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2680,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2706,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2732,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2758,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2784,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2810,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2862,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2888,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2914,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2940,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2966,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2992,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3018,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3044,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3070,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3122,7 +3128,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3148,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3174,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3226,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3252,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3278,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3304,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3330,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3356,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3382,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3408,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3434,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3460,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3486,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3512,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3538,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3590,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3642,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3668,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3694,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3720,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3746,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3772,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3798,7 +3804,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3824,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3850,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3876,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3902,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3928,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3954,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3980,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4006,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4032,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4058,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4084,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4110,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4136,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4162,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4188,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4214,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4240,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4266,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4292,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4318,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4344,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4370,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4396,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4422,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4448,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4474,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4500,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4526,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4552,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4578,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4604,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4630,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4656,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4682,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4708,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4734,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4760,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4786,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4812,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4838,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4864,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4890,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4916,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4942,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4968,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4994,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5020,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5046,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5072,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5098,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5150,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5176,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5202,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5228,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5254,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5280,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5306,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5332,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5358,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5384,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5410,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5436,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5462,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5488,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5514,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5540,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5566,7 +5572,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5592,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5618,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5644,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5670,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5696,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5722,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5748,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5774,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5800,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5826,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5852,7 +5858,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5878,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5904,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5930,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5956,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5982,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6008,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6034,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6060,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6086,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6112,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6138,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6164,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6190,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6216,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6242,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6268,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6294,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6320,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6346,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6372,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6398,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6424,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6450,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6476,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6502,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6528,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6554,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6580,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6606,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6632,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6658,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6684,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6710,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6736,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6762,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6788,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6814,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6840,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6866,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6892,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6918,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6944,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6970,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6996,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7022,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7048,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7074,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7126,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7152,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7178,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7204,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7230,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7256,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7282,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7308,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7334,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7360,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7386,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7412,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7438,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7464,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7490,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7516,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7542,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7568,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7594,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7620,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7646,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7672,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7698,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7724,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7750,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7776,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7802,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7828,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7854,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7880,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7906,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7932,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7958,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7984,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8010,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8036,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8062,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8088,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8114,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8140,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8166,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8192,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8218,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8244,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8270,7 +8276,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8296,7 +8302,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8322,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8348,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8374,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8400,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8426,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8452,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8478,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8504,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8530,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8556,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8582,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8608,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8634,7 +8640,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8660,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8686,7 +8692,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8712,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8738,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8764,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8790,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8816,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8842,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8868,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8894,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8946,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8972,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8998,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9024,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9050,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9076,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9102,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9128,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9154,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9180,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9206,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9232,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9258,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9284,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9310,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9336,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9362,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9388,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9414,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9440,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9466,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9492,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9518,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9544,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9570,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9596,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9622,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9648,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9674,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9700,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9726,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9752,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9778,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9804,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9830,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9856,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9882,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9908,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9934,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9960,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9986,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10012,7 +10018,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10038,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10064,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10090,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10116,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10142,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10168,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10194,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10220,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10246,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10272,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10298,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10324,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10350,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10376,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10402,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10454,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10480,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10506,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10532,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10558,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10584,7 +10590,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10610,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10636,7 +10642,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10662,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10688,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10714,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10740,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10766,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10792,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10818,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10844,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10870,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10896,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10922,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10948,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10974,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11000,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11026,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11052,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11078,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11104,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11130,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11156,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11182,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11208,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11234,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11260,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11286,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11312,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11338,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11364,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11390,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11416,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11442,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11468,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11494,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11520,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11546,7 +11552,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11572,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11598,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11624,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11650,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11676,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11702,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11728,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11754,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11780,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11806,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11832,7 +11838,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11858,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11884,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11910,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11936,7 +11942,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11962,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11988,7 +11994,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12014,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12040,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12066,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12092,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12118,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12144,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12170,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12196,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12222,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12248,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12274,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12300,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12326,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12352,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12378,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12404,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12430,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12456,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12482,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12508,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12534,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12560,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12586,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12612,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12638,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12664,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12690,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12716,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12742,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12768,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12794,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12820,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12846,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12872,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12898,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12924,7 +12930,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12950,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12976,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13002,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13028,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13054,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13080,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13106,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13132,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13158,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13184,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13210,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13236,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13262,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13288,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13314,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13340,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13366,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13392,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13418,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13444,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13470,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13496,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13522,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13548,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13574,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13600,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13626,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13652,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13678,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13704,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13730,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13756,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13782,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13808,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13834,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13860,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13886,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13912,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13938,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13964,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13990,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14016,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14042,7 +14048,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14068,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14094,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14120,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14146,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14172,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14198,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14224,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14250,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14276,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14302,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14328,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14354,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14380,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14406,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14432,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14458,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14484,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14510,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14536,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14562,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14588,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14614,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14640,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14666,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14692,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14718,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14744,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14770,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14796,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14822,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14848,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14874,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14900,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14926,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14952,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14978,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15004,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15030,7 +15036,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15056,7 +15062,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15082,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15108,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15134,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15160,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15186,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15212,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15238,7 +15244,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15264,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15290,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15316,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15342,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15368,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15394,7 +15400,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15420,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15446,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15472,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15498,7 +15504,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15524,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15550,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15576,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15602,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15628,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15654,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15680,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15706,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15732,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15758,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15784,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15810,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15836,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15862,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15888,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15914,7 +15920,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15940,7 +15946,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15966,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15992,7 +15998,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16018,7 +16024,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16044,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16070,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16096,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16122,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16148,7 +16154,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16174,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16200,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16226,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16252,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16278,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16304,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16330,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16356,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16382,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16408,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16434,7 +16440,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16460,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16486,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16512,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16522,9 +16528,15 @@
       <c r="B555" t="s">
         <v>560</v>
       </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
       <c r="D555">
         <v>0</v>
       </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
       <c r="F555">
         <v>1</v>
       </c>
@@ -16532,7 +16544,53 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>561</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <v>0</v>
+      </c>
+      <c r="H556" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
         <v>562</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="584">
   <si>
     <t>date</t>
   </si>
@@ -1703,6 +1703,15 @@
   </si>
   <si>
     <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2114,7 +2123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H557"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2192,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2218,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2244,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2270,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2296,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2322,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2348,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2374,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2400,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2426,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2452,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2478,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2530,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2556,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2582,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2608,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2660,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2686,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2712,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2738,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2764,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2790,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2842,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2868,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2894,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2920,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2946,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2972,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2998,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3050,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3076,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3102,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3128,7 +3137,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3154,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3180,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3206,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3232,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3258,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3310,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3336,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3362,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3414,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3440,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3466,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3492,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3518,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3544,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3570,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3622,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3648,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3674,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3700,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3726,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3752,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3778,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3804,7 +3813,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3830,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3856,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3882,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3908,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3934,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3960,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3986,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4012,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4038,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4064,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4090,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4116,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4142,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4168,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4194,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4220,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4246,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4272,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4298,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4324,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4350,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4376,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4402,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4428,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4454,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4480,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4506,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4532,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4558,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4584,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4610,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4636,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4662,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4688,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4714,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4740,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4766,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4792,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4818,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4844,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4870,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4896,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4922,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4948,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4974,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5000,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5026,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5052,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5078,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5104,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5130,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5156,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5182,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5208,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5234,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5260,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5286,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5312,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5338,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5364,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5390,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5416,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5442,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5468,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5494,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5520,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5546,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5572,7 +5581,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5598,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5624,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5650,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5676,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5702,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5728,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5754,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5780,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5806,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5832,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5858,7 +5867,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5884,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5910,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5936,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5962,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5988,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6014,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6040,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6066,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6092,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6118,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6144,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6170,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6196,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6222,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6248,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6274,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6300,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6326,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6352,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6378,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6404,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6430,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6456,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6482,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6508,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6534,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6560,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6586,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6612,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6638,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6664,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6690,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6716,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6742,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6768,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6794,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6820,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6846,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6872,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6898,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6924,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6950,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6976,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7002,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7028,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7054,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7080,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7106,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7132,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7158,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7184,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7210,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7236,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7262,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7288,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7314,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7340,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7366,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7392,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7418,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7444,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7470,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7496,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7522,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7548,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7574,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7600,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7626,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7652,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7678,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7704,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7730,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7756,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7782,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7808,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7834,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7860,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7886,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7912,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7938,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7964,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7990,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8016,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8042,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8068,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8094,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8120,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8146,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8172,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8198,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8224,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8250,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8276,7 +8285,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8302,7 +8311,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8328,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8354,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8380,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8406,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8432,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8458,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8484,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8510,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8536,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8562,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8588,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8614,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8640,7 +8649,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8666,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8692,7 +8701,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8718,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8744,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8770,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8796,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8822,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8848,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8874,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8900,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8926,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8952,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8978,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9004,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9030,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9056,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9082,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9108,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9134,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9160,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9186,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9212,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9238,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9264,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9290,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9316,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9342,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9368,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9394,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9420,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9446,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9472,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9498,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9524,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9550,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9576,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9602,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9628,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9654,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9680,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9706,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9732,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9758,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9784,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9810,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9836,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9862,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9888,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9914,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9940,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9966,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9992,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10018,7 +10027,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10044,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10070,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10096,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10122,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10148,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10174,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10200,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10226,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10252,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10278,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10304,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10330,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10356,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10382,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10408,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10434,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10460,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10486,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10512,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10538,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10564,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10590,7 +10599,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10616,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10642,7 +10651,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10668,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10694,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10720,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10746,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10772,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10798,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10824,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10850,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10876,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10902,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10928,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10954,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10980,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11006,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11032,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11058,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11084,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11110,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11136,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11162,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11188,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11214,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11240,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11266,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11292,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11318,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11344,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11370,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11396,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11422,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11448,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11474,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11500,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11526,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11552,7 +11561,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11578,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11604,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11630,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11656,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11682,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11708,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11734,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11760,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11786,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11812,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11838,7 +11847,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11864,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11890,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11916,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11942,7 +11951,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11968,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11994,7 +12003,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12020,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12046,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12072,7 +12081,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12098,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12124,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12150,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12176,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12202,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12228,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12254,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12280,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12306,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12332,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12358,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12384,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12410,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12436,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12462,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12488,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12514,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12540,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12566,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12592,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12618,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12644,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12670,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12696,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12722,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12748,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12774,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12800,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12826,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12852,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12878,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12904,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12930,7 +12939,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12956,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12982,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13008,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13034,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13060,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13086,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13112,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13138,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13164,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13190,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13216,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13242,7 +13251,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13268,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13294,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13320,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13346,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13372,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13398,7 +13407,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13424,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13450,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13476,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13502,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13528,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13554,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13580,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13606,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13632,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13658,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13684,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13710,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13736,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13762,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13788,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13814,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13840,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13866,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13892,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13918,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13944,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13970,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13996,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14022,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14048,7 +14057,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14074,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14100,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14126,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14152,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14178,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14204,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14230,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14256,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14282,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14308,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14334,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14360,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14386,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14412,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14438,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14464,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14490,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14516,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14542,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14568,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14594,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14620,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14646,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14672,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14698,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14724,7 +14733,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14750,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14776,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14802,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14828,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14854,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14880,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14906,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14932,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14958,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14984,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15010,7 +15019,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15036,7 +15045,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15062,7 +15071,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15088,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15114,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15140,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15166,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15192,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15218,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15244,7 +15253,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15270,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15296,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15322,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15348,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15374,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15400,7 +15409,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15426,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15452,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15478,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15504,7 +15513,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15530,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15556,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15582,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15608,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15634,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15660,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15686,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15712,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15738,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15764,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15790,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15816,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15842,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15868,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15894,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15920,7 +15929,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15946,7 +15955,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15972,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15998,7 +16007,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16024,7 +16033,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16050,7 +16059,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16076,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16102,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16128,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16154,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16180,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16206,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16232,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16258,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16284,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16310,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16336,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16362,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16388,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16414,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16440,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16466,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16492,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16518,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16544,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16570,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16580,9 +16589,15 @@
       <c r="B557" t="s">
         <v>562</v>
       </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
       <c r="D557">
         <v>0</v>
       </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
       <c r="F557">
         <v>0</v>
       </c>
@@ -16590,7 +16605,79 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
         <v>563</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+      <c r="H558" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>564</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>1</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>565</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="588">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2129,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2233,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2285,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2363,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2389,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2415,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2441,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2467,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2493,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2519,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2545,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2597,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2649,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2675,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2701,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2727,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2753,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2779,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2805,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2831,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2883,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2909,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2935,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2987,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3013,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3039,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3091,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3117,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3143,7 +3149,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3169,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3195,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3221,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3247,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3273,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3299,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3325,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3403,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3429,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3455,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3481,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3507,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3533,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3559,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3585,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3611,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3663,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3715,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3793,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3819,7 +3825,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3845,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3871,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3897,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3923,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3949,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3975,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4001,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4027,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4053,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4105,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4131,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4157,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4209,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4235,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4261,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4287,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4313,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4339,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4365,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4391,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4417,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4443,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4469,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4495,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4521,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4547,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4573,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4599,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4625,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4651,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4677,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4703,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4755,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4781,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4807,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4833,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4859,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4885,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4911,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4937,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4963,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4989,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5015,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5041,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5067,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5093,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5119,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5145,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5171,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5197,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5223,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5249,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5275,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5301,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5327,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5353,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5379,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5405,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5431,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5457,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5483,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5509,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5535,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5561,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5587,7 +5593,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5613,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5639,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5665,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5691,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5717,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5743,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5769,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5795,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5821,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5847,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5873,7 +5879,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5925,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5951,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5977,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6003,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6029,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6081,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6107,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6133,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6159,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6185,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6211,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6237,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6263,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6289,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6315,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6341,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6367,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6393,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6419,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6445,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6471,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6497,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6523,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6549,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6575,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6601,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6627,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6653,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6679,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6705,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6731,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6757,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6783,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6809,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6835,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6861,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6887,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6913,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6939,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6965,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6991,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7017,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7043,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7069,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7095,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7121,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7147,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7173,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7199,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7225,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7251,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7277,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7303,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7329,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7355,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7381,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7407,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7433,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7459,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7511,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7537,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7563,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7589,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7615,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7641,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7667,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7693,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7719,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7745,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7771,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7797,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7823,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7849,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7875,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7901,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7927,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7953,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7979,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8005,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8031,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8057,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8083,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8109,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8135,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8161,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8187,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8213,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8239,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8265,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8291,7 +8297,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8317,7 +8323,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8343,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8369,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8395,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8421,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8447,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8473,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8499,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8525,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8551,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8577,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8603,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8629,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8655,7 +8661,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8681,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8707,7 +8713,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8733,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8759,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8785,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8811,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8837,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8863,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8889,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8915,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8941,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8967,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8993,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9019,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9045,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9071,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9097,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9123,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9149,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9175,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9201,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9227,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9253,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9279,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9305,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9331,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9357,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9383,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9409,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9435,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9461,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9487,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9513,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9539,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9565,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9591,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9617,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9643,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9669,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9695,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9721,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9747,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9773,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9799,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9825,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9877,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9903,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9929,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9955,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9981,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10007,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10033,7 +10039,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10059,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10085,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10111,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10137,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10163,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10189,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10215,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10267,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10293,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10319,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10345,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10371,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10397,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10423,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10449,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10475,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10501,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10527,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10553,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10579,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10605,7 +10611,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10631,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10657,7 +10663,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10683,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10709,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10735,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10761,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10787,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10813,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10839,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10865,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10891,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10917,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10943,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10969,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10995,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11021,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11047,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11073,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11099,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11125,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11151,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11177,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11203,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11229,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11255,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11281,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11307,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11333,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11359,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11385,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11411,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11437,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11463,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11489,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11515,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11541,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11567,7 +11573,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11593,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11619,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11645,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11671,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11697,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11723,7 +11729,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11749,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11775,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11801,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11827,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11853,7 +11859,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11879,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11905,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11931,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11957,7 +11963,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11983,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12009,7 +12015,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12035,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12061,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12087,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12113,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12139,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12165,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12191,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12217,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12243,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12269,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12295,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12321,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12347,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12373,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12399,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12425,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12451,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12477,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12503,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12529,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12555,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12581,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12607,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12633,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12659,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12685,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12711,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12737,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12763,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12789,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12815,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12841,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12867,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12893,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12919,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12945,7 +12951,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12971,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12997,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13023,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13049,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13075,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13101,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13127,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13153,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13179,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13205,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13231,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13257,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13283,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13309,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13335,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13361,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13387,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13413,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13439,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13465,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13491,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13517,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13543,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13569,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13595,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13621,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13647,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13673,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13699,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13725,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13751,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13777,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13803,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13829,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13855,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13881,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13907,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13933,7 +13939,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13959,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13985,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14011,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14037,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14063,7 +14069,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14089,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14115,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14141,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14167,7 +14173,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14193,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14219,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14245,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14271,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14297,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14323,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14349,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14375,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14401,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14427,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14453,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14479,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14505,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14531,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14557,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14583,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14609,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14635,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14661,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14687,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14713,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14739,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14765,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14791,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14817,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14843,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14869,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14895,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14921,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14947,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14973,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14999,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15025,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15051,7 +15057,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15077,7 +15083,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15103,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15129,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15155,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15181,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15207,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15233,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15259,7 +15265,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15285,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15311,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15337,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15363,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15389,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15415,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15441,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15467,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15493,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15519,7 +15525,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15545,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15571,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15597,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15623,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15649,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15675,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15701,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15727,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15753,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15779,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15805,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15831,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15857,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15883,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15909,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15935,7 +15941,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15961,7 +15967,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15987,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16013,7 +16019,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16039,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16065,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16091,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16117,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16143,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16169,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16195,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16221,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16247,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16273,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16299,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16325,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16351,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16377,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16403,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16429,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16455,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16481,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16507,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16533,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16559,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16585,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16611,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16637,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16663,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16689,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16715,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16725,9 +16731,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>0</v>
       </c>
@@ -16735,7 +16747,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
         <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="590">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2135,7 +2141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2187,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2213,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2239,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2265,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2317,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2421,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2473,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2525,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2603,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2629,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2655,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2681,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2707,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2733,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2785,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2811,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2837,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2863,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2889,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2915,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2941,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2967,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2993,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3019,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3045,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3071,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3097,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3149,7 +3155,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3175,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3253,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3279,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3305,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3331,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3357,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3383,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3409,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3435,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3461,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3487,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3513,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3539,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3565,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3617,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3643,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3669,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3695,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3721,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3747,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3799,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3825,7 +3831,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3851,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3877,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3929,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3955,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3981,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4007,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4033,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4059,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4085,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4111,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4137,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4163,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4189,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4241,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4267,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4293,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4319,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4345,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4371,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4397,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4449,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4475,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4501,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4527,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4553,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4579,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4605,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4657,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4683,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4709,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4735,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4761,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4787,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4813,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4839,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4865,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4891,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4917,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4943,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4969,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4995,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5021,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5047,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5073,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5099,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5125,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5151,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5177,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5203,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5229,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5255,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5281,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5307,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5333,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5359,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5385,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5411,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5437,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5463,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5489,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5515,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5541,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5567,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5593,7 +5599,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5619,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5645,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5671,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5697,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5723,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5749,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5775,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5801,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5827,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5853,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5879,7 +5885,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5905,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5931,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5957,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5983,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6009,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6035,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6061,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6087,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6113,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6139,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6165,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6191,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6217,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6243,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6269,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6295,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6321,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6347,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6373,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6399,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6425,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6451,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6477,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6503,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6529,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6555,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6581,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6607,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6633,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6659,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6685,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6711,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6737,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6763,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6789,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6815,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6841,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6867,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6893,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6919,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6945,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6971,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6997,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7023,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7049,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7075,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7101,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7127,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7153,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7179,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7205,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7231,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7257,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7283,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7309,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7335,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7361,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7387,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7413,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7439,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7491,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7517,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7543,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7569,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7595,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7621,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7647,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7673,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7699,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7725,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7751,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7777,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7803,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7855,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7881,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7907,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7933,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7959,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7985,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8011,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8037,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8063,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8089,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8115,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8141,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8167,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8193,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8219,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8245,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8271,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8297,7 +8303,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8323,7 +8329,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8349,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8375,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8401,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8427,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8453,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8479,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8505,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8531,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8557,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8583,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8609,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8635,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8661,7 +8667,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8687,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8713,7 +8719,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8739,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8765,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8791,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8817,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8843,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8869,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8895,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8921,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8947,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8973,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8999,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9025,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9051,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9077,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9103,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9129,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9155,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9181,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9207,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9233,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9259,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9285,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9311,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9337,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9363,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9389,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9415,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9441,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9467,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9493,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9519,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9545,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9571,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9597,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9623,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9649,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9675,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9701,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9727,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9753,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9779,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9805,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9831,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9857,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9883,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9909,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9935,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9961,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9987,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10013,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10039,7 +10045,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10065,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10091,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10117,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10143,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10169,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10195,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10221,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10247,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10273,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10299,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10325,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10351,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10377,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10403,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10429,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10455,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10481,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10507,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10533,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10559,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10585,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10611,7 +10617,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10637,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10663,7 +10669,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10689,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10715,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10741,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10767,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10793,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10819,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10845,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10871,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10897,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10923,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10949,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10975,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11001,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11027,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11053,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11079,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11105,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11131,7 +11137,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11157,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11183,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11209,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11235,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11261,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11287,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11313,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11339,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11365,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11391,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11417,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11443,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11469,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11495,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11521,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11547,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11573,7 +11579,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11599,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11625,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11651,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11677,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11703,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11729,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11755,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11781,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11807,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11833,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11859,7 +11865,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11885,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11911,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11937,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11963,7 +11969,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11989,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12015,7 +12021,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12041,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12067,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12093,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12119,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12145,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12171,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12197,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12223,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12249,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12275,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12301,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12327,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12353,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12405,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12431,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12457,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12483,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12509,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12535,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12561,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12587,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12613,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12639,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12665,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12691,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12717,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12743,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12769,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12795,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12821,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12847,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12873,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12899,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12925,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12951,7 +12957,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12977,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13003,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13029,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13055,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13081,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13107,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13133,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13159,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13185,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13211,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13237,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13263,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13289,7 +13295,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13315,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13341,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13367,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13393,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13419,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13445,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13471,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13497,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13523,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13549,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13575,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13601,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13627,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13653,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13679,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13705,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13731,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13757,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13783,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13809,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13835,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13861,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13887,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13913,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13939,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13965,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13991,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14017,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14043,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14069,7 +14075,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14095,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14121,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14147,7 +14153,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14173,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14199,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14225,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14251,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14277,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14303,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14329,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14355,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14381,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14407,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14433,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14459,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14485,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14511,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14537,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14563,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14589,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14615,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14641,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14667,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14693,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14719,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14745,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14771,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14797,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14823,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14849,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14875,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14901,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14927,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14953,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14979,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15005,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15031,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15057,7 +15063,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15083,7 +15089,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15109,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15135,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15161,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15187,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15213,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15239,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15265,7 +15271,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15291,7 +15297,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15317,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15343,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15369,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15395,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15421,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15447,7 +15453,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15473,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15499,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15525,7 +15531,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15551,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15577,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15603,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15629,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15655,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15681,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15707,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15733,7 +15739,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15759,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15785,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15811,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15837,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15863,7 +15869,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15889,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15915,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15941,7 +15947,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15967,7 +15973,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15993,7 +15999,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16019,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16045,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16071,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16097,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16123,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16149,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16175,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16201,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16227,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16253,7 +16259,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16279,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16305,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16331,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16357,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16383,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16409,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16435,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16461,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16487,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16513,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16539,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16565,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16591,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16617,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16643,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16669,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16695,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16721,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16747,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16773,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16783,9 +16789,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>0</v>
       </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
       <c r="F564">
         <v>0</v>
       </c>
@@ -16793,7 +16805,53 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
         <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="596">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2141,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2193,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2219,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2245,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2271,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2297,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2349,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2427,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2453,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2479,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2505,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2531,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2557,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2583,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2609,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2635,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2661,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2687,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2713,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2739,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2765,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2791,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2817,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2843,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2869,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2895,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2921,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2947,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2973,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2999,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3025,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3051,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3077,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3103,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3129,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3155,7 +3173,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3181,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3207,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3233,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3259,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3285,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3311,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3337,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3363,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3389,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3415,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3441,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3467,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3493,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3519,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3545,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3571,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3597,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3623,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3649,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3675,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3701,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3727,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3753,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3779,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3805,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3831,7 +3849,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3857,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3883,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3909,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3935,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3961,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3987,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4013,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4039,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4065,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4091,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4117,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4143,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4169,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4195,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4221,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4247,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4273,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4299,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4325,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4351,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4377,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4403,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4429,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4455,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4481,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4507,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4533,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4559,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4585,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4611,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4637,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4663,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4689,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4715,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4741,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4767,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4793,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4819,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4845,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4871,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4897,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4923,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4949,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4975,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5001,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5027,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5053,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5079,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5105,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5131,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5183,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5209,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5235,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5261,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5287,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5313,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5339,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5365,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5391,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5417,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5443,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5469,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5495,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5521,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5547,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5573,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5599,7 +5617,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5625,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5651,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5677,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5703,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5729,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5755,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5781,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5807,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5833,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5859,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5885,7 +5903,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5911,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5937,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5963,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5989,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6015,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6041,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6067,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6093,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6119,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6145,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6171,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6197,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6223,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6249,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6275,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6301,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6327,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6379,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6405,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6431,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6457,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6483,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6509,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6535,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6561,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6587,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6613,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6639,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6665,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6691,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6717,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6743,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6769,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6795,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6821,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6847,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6873,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6899,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6925,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6977,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7003,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7029,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7055,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7081,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7107,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7133,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7159,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7185,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7211,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7237,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7263,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7289,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7315,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7341,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7367,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7393,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7419,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7445,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7471,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7497,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7523,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7549,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7575,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7601,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7627,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7653,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7679,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7705,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7731,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7757,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7783,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7809,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7835,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7861,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7887,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7913,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7939,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7965,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7991,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8017,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8043,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8069,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8095,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8121,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8147,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8173,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8199,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8225,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8251,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8277,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8303,7 +8321,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8329,7 +8347,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8355,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8381,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8407,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8433,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8459,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8485,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8511,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8537,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8563,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8589,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8615,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8641,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8667,7 +8685,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8693,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8719,7 +8737,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8745,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8771,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8797,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8823,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8849,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8875,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8901,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8927,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8953,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8979,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9005,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9031,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9057,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9083,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9109,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9135,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9161,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9187,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9213,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9239,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9265,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9291,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9317,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9343,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9369,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9395,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9421,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9447,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9473,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9499,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9525,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9551,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9577,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9603,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9629,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9655,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9681,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9707,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9733,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9759,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9785,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9811,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9837,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9863,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9889,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9915,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9941,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9967,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9993,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10019,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10045,7 +10063,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10071,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10097,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10123,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10149,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10175,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10201,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10227,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10253,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10279,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10305,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10331,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10357,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10383,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10409,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10435,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10461,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10487,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10513,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10539,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10565,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10591,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10617,7 +10635,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10643,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10669,7 +10687,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10695,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10721,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10747,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10773,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10799,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10825,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10851,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10877,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10903,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10929,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10955,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10981,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11007,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11033,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11059,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11085,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11111,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11137,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11163,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11189,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11215,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11241,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11267,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11293,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11319,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11345,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11371,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11397,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11423,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11449,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11475,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11501,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11527,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11553,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11579,7 +11597,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11605,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11631,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11657,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11683,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11709,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11735,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11761,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11787,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11813,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11839,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11865,7 +11883,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11891,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11917,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11943,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11969,7 +11987,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11995,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12021,7 +12039,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12047,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12073,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12099,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12125,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12151,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12177,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12203,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12229,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12255,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12281,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12307,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12333,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12359,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12385,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12411,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12437,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12463,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12489,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12515,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12541,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12567,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12593,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12619,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12645,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12671,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12697,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12723,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12749,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12775,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12801,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12827,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12853,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12879,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12905,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12931,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12957,7 +12975,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12983,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13009,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13035,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13061,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13087,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13113,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13139,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13165,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13191,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13217,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13243,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13269,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13295,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13321,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13347,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13373,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13399,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13425,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13451,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13477,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13503,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13529,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13555,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13581,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13607,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13633,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13659,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13685,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13711,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13737,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13763,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13789,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13815,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13841,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13867,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13893,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13919,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13945,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13971,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13997,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14023,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14049,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14075,7 +14093,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14101,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14127,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14153,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14179,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14205,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14231,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14257,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14283,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14309,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14335,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14361,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14387,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14413,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14439,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14465,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14491,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14517,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14543,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14569,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14595,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14621,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14647,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14673,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14699,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14725,7 +14743,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14751,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14777,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14803,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14829,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14855,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14881,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14907,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14933,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14959,7 +14977,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14985,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15011,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15037,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15063,7 +15081,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15089,7 +15107,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15115,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15141,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15167,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15193,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15219,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15245,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15271,7 +15289,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15297,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15323,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15349,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15375,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15401,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15427,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15453,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15479,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15505,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15531,7 +15549,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15557,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15583,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15609,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15635,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15661,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15687,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15713,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15739,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15765,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15791,7 +15809,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15817,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15843,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15869,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15895,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15921,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15947,7 +15965,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15973,7 +15991,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15999,7 +16017,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16025,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16051,7 +16069,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16077,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16103,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16129,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16155,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16181,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16207,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16233,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16259,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16285,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16311,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16337,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16363,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16389,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16415,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16441,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16467,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16493,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16519,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16545,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16571,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16597,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16623,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16649,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16675,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16701,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16727,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16753,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16779,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16805,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16831,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16841,9 +16859,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
       </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
       <c r="F566">
         <v>0</v>
       </c>
@@ -16851,7 +16875,157 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
         <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO+VMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="598">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2159,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2211,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2237,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2263,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2289,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2315,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2341,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2367,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2393,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2523,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2549,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2575,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2653,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2679,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2705,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2731,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2757,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2809,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2835,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2939,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2965,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3017,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3043,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3095,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3121,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3147,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3173,7 +3179,7 @@
         <v>0.6413547834489849</v>
       </c>
       <c r="H39" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3199,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3251,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3277,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3329,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3381,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3407,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3459,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3485,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3511,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3537,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3563,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3615,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3667,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3693,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3745,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3797,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3849,7 +3855,7 @@
         <v>0.4999999999999997</v>
       </c>
       <c r="H65" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3875,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3901,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3927,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3953,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4005,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4057,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4083,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4109,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4135,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4187,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4213,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4239,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4265,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4291,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4317,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4343,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4369,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4395,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4421,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4447,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4473,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4499,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4525,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4551,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4577,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4603,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4629,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4655,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4681,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4707,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4733,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4759,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4785,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4811,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4837,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4889,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4915,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4941,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4967,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4993,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5019,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5045,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5071,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5097,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5123,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5175,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5201,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5227,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5253,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5279,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5305,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5331,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5357,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5383,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5409,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5461,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5487,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5513,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5539,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5565,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5591,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5617,7 +5623,7 @@
         <v>0.4999999999999998</v>
       </c>
       <c r="H133" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5643,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5669,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5695,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5721,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5747,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5773,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5799,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5825,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5851,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5877,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5903,7 +5909,7 @@
         <v>0.3701697684676699</v>
       </c>
       <c r="H144" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5929,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5955,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5981,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6007,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6033,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6059,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6085,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6111,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6137,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6163,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6189,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6215,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6241,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6267,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6293,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6319,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6345,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6371,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6397,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6423,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6449,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6475,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6501,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6527,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6553,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6579,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6605,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6631,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6657,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6683,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6709,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6735,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6761,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6787,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6813,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6839,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6865,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6891,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6917,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6943,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6969,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6995,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7021,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7047,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7073,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7099,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7125,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7151,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7177,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7203,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7229,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7255,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7281,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7307,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7333,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7359,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7385,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7411,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7437,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7489,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7515,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7541,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7567,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7593,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7619,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7645,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7671,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7697,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7723,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7749,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7775,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7801,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7827,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7853,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7879,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7905,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7931,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7957,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7983,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8009,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8035,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8061,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8087,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8113,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8139,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8165,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8191,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8217,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8243,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8269,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8295,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8321,7 +8327,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H237" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8347,7 +8353,7 @@
         <v>0.5214277436733231</v>
       </c>
       <c r="H238" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8373,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8399,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8425,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8451,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8477,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8503,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8529,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8555,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8581,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8607,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8633,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8659,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8685,7 +8691,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H251" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8711,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8737,7 +8743,7 @@
         <v>0.484638085478694</v>
       </c>
       <c r="H253" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8763,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8789,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8815,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8841,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8867,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8893,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8919,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8945,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8971,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8997,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9023,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9049,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9075,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9101,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9127,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9153,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9179,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9205,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9231,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9257,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9283,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9309,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9361,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9387,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9413,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9439,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9465,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9491,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9517,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9543,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9569,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9595,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9621,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9647,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9673,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9699,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9725,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9751,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9777,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9803,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9829,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9855,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9881,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9907,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9933,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9959,7 +9965,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10011,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10037,7 +10043,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10063,7 +10069,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="H304" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10089,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10115,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10141,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10167,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10193,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10219,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10245,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10271,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10297,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10323,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10349,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10375,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10401,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10427,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10479,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10505,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10531,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10557,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10583,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10609,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10635,7 +10641,7 @@
         <v>0.4909424805757511</v>
       </c>
       <c r="H326" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10661,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10687,7 +10693,7 @@
         <v>0.4204513055217457</v>
       </c>
       <c r="H328" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10713,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10739,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10765,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10791,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10817,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10843,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10869,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10895,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10921,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10947,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10973,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10999,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11025,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11051,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11077,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11103,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11129,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11155,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11181,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11207,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11233,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11259,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11285,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11311,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11337,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11363,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11389,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11415,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11441,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11467,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11493,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11519,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11545,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11571,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11597,7 +11603,7 @@
         <v>0.5673982173301301</v>
       </c>
       <c r="H363" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11623,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11649,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11675,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11701,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11727,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11753,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11779,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11805,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11831,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11857,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11883,7 +11889,7 @@
         <v>0.7617649477802938</v>
       </c>
       <c r="H374" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11909,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11935,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11961,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11987,7 +11993,7 @@
         <v>0.4941973400481545</v>
       </c>
       <c r="H378" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12013,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12039,7 +12045,7 @@
         <v>0.6432376646809926</v>
       </c>
       <c r="H380" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12065,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12091,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12117,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12143,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12169,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12195,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12221,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12247,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12273,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12325,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12351,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12377,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12403,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12429,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12455,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12481,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12507,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12533,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12559,7 +12565,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12585,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12611,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12637,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12663,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12689,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12715,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12741,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12767,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12793,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12819,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12845,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12871,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12897,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12923,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12949,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12975,7 +12981,7 @@
         <v>0.700643406882752</v>
       </c>
       <c r="H416" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13001,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13027,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13053,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13079,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13105,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13131,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13157,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13183,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13209,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13235,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13261,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13287,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13313,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13339,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13365,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13391,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13417,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13443,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13469,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13495,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13521,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13547,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13573,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13599,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13625,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13651,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13677,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13703,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13729,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13755,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13781,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13807,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13833,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13859,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13885,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13911,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13937,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13963,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13989,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14015,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14041,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14067,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14093,7 +14099,7 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="H459" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14119,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14145,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14171,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14197,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14223,7 +14229,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14249,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14275,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14301,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14327,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14353,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14379,7 +14385,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14405,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14431,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14457,7 +14463,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14483,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14509,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14535,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14561,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14587,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14613,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14639,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14665,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14691,7 +14697,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14717,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14743,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14769,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14795,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14821,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14847,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14873,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14899,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14925,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14951,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14977,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15003,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15029,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15055,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15081,7 +15087,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="H497" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15107,7 +15113,7 @@
         <v>0.2111922102704205</v>
       </c>
       <c r="H498" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15133,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15159,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15185,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15211,7 +15217,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15237,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15263,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15289,7 +15295,7 @@
         <v>0.2804965151720056</v>
       </c>
       <c r="H505" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15315,7 +15321,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15341,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15367,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15393,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15419,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15445,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15471,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15497,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15523,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15549,7 +15555,7 @@
         <v>0.5112065030079475</v>
       </c>
       <c r="H515" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15575,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15601,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15627,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15653,7 +15659,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15679,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15705,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15731,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15757,7 +15763,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15783,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15809,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15835,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15861,7 +15867,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15887,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15913,7 +15919,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15939,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15965,7 +15971,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15991,7 +15997,7 @@
         <v>0.5558</v>
       </c>
       <c r="H532" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16017,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16043,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16069,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16095,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16121,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16147,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16173,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16199,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16225,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16251,7 +16257,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16277,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16303,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16329,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16355,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16381,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16407,7 +16413,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16433,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16459,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16485,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16511,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16537,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16563,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16589,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16615,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16641,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16667,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16693,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16719,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16745,7 +16751,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16771,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16797,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16823,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16849,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16875,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16901,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16927,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16953,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16979,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17005,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17015,9 +17021,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>1</v>
       </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
       <c r="F572">
         <v>0</v>
       </c>
@@ -17025,7 +17037,53 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
